--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77756F5F-6283-4D2B-9F61-DC8B768813E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7DA3B6-413F-4CA0-B81D-E5E284A999DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,16 +25,98 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>1st commit</t>
+  </si>
+  <si>
+    <t>The value</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Ultimate way to predict the value.</t>
+  </si>
+  <si>
+    <t>Increment</t>
+  </si>
+  <si>
+    <t>To learn about the forecast</t>
+  </si>
+  <si>
+    <t>Product backlog</t>
+  </si>
+  <si>
+    <t>Scrum</t>
+  </si>
+  <si>
+    <t>Successful by releasing frequently.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Difficulty to build : re-negociate. Ordering by anythings that informs.
+Updated only during PB refinement.</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Must respect the PO's decisions. It creates the DOD.</t>
+  </si>
+  <si>
+    <t>His primary target is the VALUE.
+PB : Product Backlog. 
+DOD : Definition of done.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Typically : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collaborate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with stakeholders and work </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with the developers.</t>
+    </r>
+  </si>
+  <si>
+    <t>Is not only determined by revenue. To make investment, all required to conceive and develop.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -45,15 +127,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -76,7 +149,12 @@
     </font>
     <font>
       <b/>
-      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +162,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,11 +218,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -147,28 +229,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -459,229 +541,259 @@
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="11" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="4"/>
+    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="3"/>
+      <c r="B1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" ht="124.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="5"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:3" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2"/>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:3" ht="113.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="3"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2"/>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" ht="120" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="3"/>
+      <c r="A13" s="1"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2"/>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="2"/>
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="2"/>
     </row>
     <row r="19" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="2"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="2"/>
     </row>
     <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="2"/>
     </row>
     <row r="22" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="3"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="2"/>
     </row>
     <row r="38" spans="1:3" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="3"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E7DA3B6-413F-4CA0-B81D-E5E284A999DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84531D-A18E-4BA4-8302-56ECD6D89A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="984" yWindow="324" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>1st commit</t>
-  </si>
-  <si>
     <t>The value</t>
   </si>
   <si>
     <t>Points</t>
   </si>
   <si>
-    <t>Ultimate way to predict the value.</t>
-  </si>
-  <si>
     <t>Increment</t>
   </si>
   <si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>Scrum</t>
-  </si>
-  <si>
-    <t>Successful by releasing frequently.</t>
   </si>
   <si>
     <t>Sprint</t>
@@ -70,6 +61,9 @@
     <t>His primary target is the VALUE.
 PB : Product Backlog. 
 DOD : Definition of done.</t>
+  </si>
+  <si>
+    <t>Ultimate way to predict the value. Developers are accountable for estimates.</t>
   </si>
   <si>
     <r>
@@ -107,16 +101,36 @@
       </rPr>
       <t>with the developers.</t>
     </r>
-  </si>
-  <si>
-    <t>Is not only determined by revenue. To make investment, all required to conceive and develop.</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To allow sprint planning : PB, product goal.</t>
+    </r>
+  </si>
+  <si>
+    <t>Successful by releasing frequently. 
+Timeboxes help minimize risk.</t>
+  </si>
+  <si>
+    <t>Its management by order the PB ans validating assumptions.
+Is not only determined by revenue. To make investment, all required to conceive and develop.
+With technical debt &gt; velocity reduced &gt; greater budget.</t>
+  </si>
+  <si>
+    <t>corrigé le 16/03 11h11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,6 +190,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -218,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -251,6 +273,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,9 +565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -554,20 +577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -578,10 +601,10 @@
     </row>
     <row r="4" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -592,10 +615,10 @@
     </row>
     <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -606,10 +629,10 @@
     </row>
     <row r="8" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -620,10 +643,10 @@
     </row>
     <row r="10" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -634,10 +657,10 @@
     </row>
     <row r="12" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -648,10 +671,10 @@
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
     </row>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F84531D-A18E-4BA4-8302-56ECD6D89A6E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F1545-252A-42D3-859D-BE58AEE0534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="984" yWindow="324" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7692" yWindow="1416" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>The value</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Increment</t>
   </si>
   <si>
-    <t>To learn about the forecast</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -48,25 +45,341 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Difficulty to build : re-negociate. Ordering by anythings that informs.
-Updated only during PB refinement.</t>
-  </si>
-  <si>
     <t>Organization</t>
   </si>
   <si>
     <t>Must respect the PO's decisions. It creates the DOD.</t>
   </si>
   <si>
-    <t>His primary target is the VALUE.
-PB : Product Backlog. 
-DOD : Definition of done.</t>
-  </si>
-  <si>
     <t>Ultimate way to predict the value. Developers are accountable for estimates.</t>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">The primary target of the PO is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+PB : Product Backlog.  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A new sprint starts immediately after the previous sprint.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DOD : Definition of done. Ne jamais choisir comme réponses "hardening" et "tester".</t>
+    </r>
+  </si>
+  <si>
+    <t>To learn about the forecast, the sum of all PO items.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successful by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>releasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frequently/often. 
+Timeboxes help minimize risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for other techniques and methodologies.
+VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : customer feedback.  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Its management by order the PB ans validating assumptions.
+Is not only determined by revenue. To make investment, all required to conceive and develop.
+With technical debt &gt; velocity reduced &gt; greater budget.
+The PO is responsible for the ROI (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eturn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nvestment),</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> he monitors by any practice.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">roject plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">otal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ost of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wnership) is the sum of all investments required.</t>
+    </r>
+  </si>
+  <si>
+    <t>Divers</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Typically : </t>
     </r>
     <r>
@@ -110,27 +423,201 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-To allow sprint planning : PB, product goal.</t>
-    </r>
-  </si>
-  <si>
-    <t>Successful by releasing frequently. 
-Timeboxes help minimize risk.</t>
-  </si>
-  <si>
-    <t>Its management by order the PB ans validating assumptions.
-Is not only determined by revenue. To make investment, all required to conceive and develop.
-With technical debt &gt; velocity reduced &gt; greater budget.</t>
-  </si>
-  <si>
-    <t>corrigé le 16/03 11h11</t>
+To allow sprint planning : PB, product goal.
+Sprint retrospective : what to stop and start doing, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the PO.
+3 activities of the PO : work (provide feedback) with the stackholders, answer questions.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criteria to order :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Value, dependencies to other and between.
+Difficulty to build : re-negociate. Ordering by anythings that informs.
+Updated only during PB refinement. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for sprint planning : cancel the sprint.
+Changes by the PO and by the developers (with PO permission). NEVER BASELINED. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is the only source of requirements for any changes to be made.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PB often include test descriptions. The PO must create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceptance criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legwork of gathering :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it does not matter.
+A persona : An imaginary representation of a user role.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Least productive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: act as a go-between.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pigs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the team.
+Product succes : customer satisfaction, revenue, cost.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 16/03 15h18</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +681,22 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -578,19 +1081,19 @@
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -604,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="4"/>
     </row>
@@ -618,7 +1121,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -627,12 +1130,12 @@
       <c r="B7" s="6"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -641,12 +1144,12 @@
       <c r="B9" s="6"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -655,12 +1158,12 @@
       <c r="B11" s="6"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C12" s="2"/>
     </row>
@@ -671,10 +1174,10 @@
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
     </row>
@@ -683,9 +1186,13 @@
       <c r="B15" s="6"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6"/>
+    <row r="16" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="C16" s="2"/>
     </row>
     <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E5F1545-252A-42D3-859D-BE58AEE0534D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062F200-1488-49D8-9DEA-5474FBC09D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7692" yWindow="1416" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10128" yWindow="492" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,17 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>The value</t>
   </si>
   <si>
-    <t>Points</t>
-  </si>
-  <si>
-    <t>Increment</t>
-  </si>
-  <si>
     <t>Product backlog</t>
   </si>
   <si>
@@ -51,7 +45,10 @@
     <t>Must respect the PO's decisions. It creates the DOD.</t>
   </si>
   <si>
-    <t>Ultimate way to predict the value. Developers are accountable for estimates.</t>
+    <t>Divers</t>
+  </si>
+  <si>
+    <t>PO</t>
   </si>
   <si>
     <r>
@@ -103,7 +100,28 @@
     </r>
   </si>
   <si>
-    <t>To learn about the forecast, the sum of all PO items.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile manifesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+comprehensive documentation</t>
+    </r>
   </si>
   <si>
     <r>
@@ -174,6 +192,219 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> : customer feedback.  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Management of the team : team members.</t>
+    </r>
+  </si>
+  <si>
+    <t>Increment/done</t>
+  </si>
+  <si>
+    <t>To learn about the forecast, the sum of all PO items.
+Done : responsible &gt; developers (development team).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legwork of gathering :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it does not matter.
+A persona : An imaginary representation of a user role.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Least productive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: act as a go-between.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pigs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the team.
+Product succes : customer satisfaction, revenue, cost.
+Developers are accountable for estimates.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Technical debt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: reflects extra work, comrpomises quality, is a real risk.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Typically : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collaborate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with stakeholders and work </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with the developers.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+To allow sprint planning : PB, product goal.
+Sprint retrospective : what to stop and start doing, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the PO.
+3 activities of the PO : work (provide feedback) with the stackholders, answer questions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sprint review </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contains much more activities.</t>
     </r>
   </si>
   <si>
@@ -186,7 +417,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -196,7 +427,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -207,7 +438,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -217,7 +448,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -228,7 +459,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -238,7 +469,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -249,7 +480,7 @@
     <r>
       <rPr>
         <u/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -259,7 +490,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -271,7 +502,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -281,7 +512,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -293,7 +524,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -303,7 +534,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -314,7 +545,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -324,7 +555,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -335,7 +566,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -345,7 +576,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -356,7 +587,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="10"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -366,42 +597,14 @@
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wnership) is the sum of all investments required.</t>
-    </r>
-  </si>
-  <si>
-    <t>Divers</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Typically : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collaborate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with stakeholders and work </t>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wnership) is the sum of all investments required.
+An i</t>
     </r>
     <r>
       <rPr>
@@ -412,41 +615,130 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>with the developers.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-To allow sprint planning : PB, product goal.
-Sprint retrospective : what to stop and start doing, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the PO.
-3 activities of the PO : work (provide feedback) with the stackholders, answer questions.</t>
+      <t>mportant client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wants : add to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planning.
+Ultimate way to predict the value : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the points.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occurs frequently.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Value maximizer. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
     </r>
   </si>
   <si>
@@ -471,7 +763,8 @@
       </rPr>
       <t xml:space="preserve"> Value, dependencies to other and between.
 Difficulty to build : re-negociate. Ordering by anythings that informs.
-Updated only during PB refinement. </t>
+Updated only during PB refinement or at any time.
+</t>
     </r>
     <r>
       <rPr>
@@ -537,35 +830,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Legwork of gathering :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it does not matter.
-A persona : An imaginary representation of a user role.
+      <t xml:space="preserve">.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transparency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : PB is ordered, availiable to all stakeholders.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -573,51 +874,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Least productive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: act as a go-between.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pigs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the team.
-Product succes : customer satisfaction, revenue, cost.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 16/03 15h18</t>
+      <t>Refinment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ongoing process, adding details and estimates.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 18/03 10h25</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -642,29 +920,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -686,16 +942,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -743,21 +990,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -769,17 +1007,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,262 +1312,264 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="3"/>
+    <col min="1" max="1" width="19.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="9" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="5"/>
-    </row>
-    <row r="2" spans="1:3" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:3" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="3"/>
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10"/>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="3"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="10"/>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:3" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" s="10"/>
     </row>
     <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="2"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="10"/>
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3"/>
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="2"/>
+      <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="10"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="10"/>
     </row>
     <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="10"/>
     </row>
     <row r="22" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="10"/>
     </row>
     <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="10"/>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="10"/>
     </row>
     <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="10"/>
     </row>
     <row r="26" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="10"/>
     </row>
     <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="10"/>
     </row>
     <row r="28" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="2"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="10"/>
     </row>
     <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="2"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="10"/>
     </row>
     <row r="30" spans="1:3" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="10"/>
     </row>
     <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="10"/>
     </row>
     <row r="32" spans="1:3" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="2"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="10"/>
     </row>
     <row r="34" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="2"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="2"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="10"/>
     </row>
     <row r="36" spans="1:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="10"/>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="10"/>
     </row>
     <row r="38" spans="1:3" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="2"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="10"/>
     </row>
     <row r="39" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="2"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="10"/>
     </row>
     <row r="40" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="2"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="10"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="10"/>
     </row>
     <row r="42" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="2"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E062F200-1488-49D8-9DEA-5474FBC09D56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B44D2-3089-431B-B3B0-F0A6212F5B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10128" yWindow="492" windowWidth="12288" windowHeight="10632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>The value</t>
   </si>
@@ -97,30 +97,6 @@
       </rPr>
       <t xml:space="preserve">
 DOD : Definition of done. Ne jamais choisir comme réponses "hardening" et "tester".</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agile manifesto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-comprehensive documentation</t>
     </r>
   </si>
   <si>
@@ -312,99 +288,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: reflects extra work, comrpomises quality, is a real risk.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Typically : </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>collaborate</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> with stakeholders and work </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>with the developers.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-To allow sprint planning : PB, product goal.
-Sprint retrospective : what to stop and start doing, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for the PO.
-3 activities of the PO : work (provide feedback) with the stackholders, answer questions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Sprint review </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>contains much more activities.</t>
     </r>
   </si>
   <si>
@@ -694,51 +577,50 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Value maximizer. He asks for stakeholder input.
-User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sigle metric </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FALSE.
-His </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attendance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile manifesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FALSE : comprehensive documentation</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> part of the scurm team :
+the developement team</t>
     </r>
   </si>
   <si>
@@ -852,7 +734,142 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : PB is ordered, availiable to all stakeholders.</t>
+      <t xml:space="preserve"> : PB is ordered, availiable to all stakeholders.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refinment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ongoing process, adding details and estimates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : sized 1-2 days. SHOULD be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1-2 preceding sprints / actual sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Primary measure of progress in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : working software.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Typically : </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>collaborate</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with stakeholders and work </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>with the developers.</t>
     </r>
     <r>
       <rPr>
@@ -863,10 +880,58 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
+To allow sprint planning : PB, product goal.
+Sprint retrospective : what to stop and start doing, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for the PO.
+3 activities of the PO : work (provide feedback) with the stackholders, answer questions.
 </t>
     </r>
     <r>
       <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Sprint review </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contains much more activities.
+Sprint backlog includes at least 1 high priority process improvement : FALSE.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -874,28 +939,93 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Refinment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : ongoing process, adding details and estimates.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 18/03 10h25</t>
+      <t>Value maximizer and product marketplace expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE. The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actively asks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for stakeholders.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 18/03 19h49</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -937,13 +1067,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1325,19 +1448,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1351,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1362,10 +1487,10 @@
     </row>
     <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1374,14 +1499,16 @@
       <c r="B7" s="3"/>
       <c r="C7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="146.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1393,10 +1520,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1404,12 +1531,12 @@
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -1437,7 +1564,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="10"/>
     </row>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5B44D2-3089-431B-B3B0-F0A6212F5B63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F384E4D-7E6D-4FA3-974D-56D4DF29C794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>The value</t>
   </si>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>Organization</t>
-  </si>
-  <si>
-    <t>Must respect the PO's decisions. It creates the DOD.</t>
   </si>
   <si>
     <t>Divers</t>
@@ -100,480 +97,11 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Successful by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>releasing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> frequently/often. 
-Timeboxes help minimize risk. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for other techniques and methodologies.
-VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : customer feedback.  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Management of the team : team members.</t>
-    </r>
-  </si>
-  <si>
     <t>Increment/done</t>
   </si>
   <si>
     <t>To learn about the forecast, the sum of all PO items.
 Done : responsible &gt; developers (development team).</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Legwork of gathering :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it does not matter.
-A persona : An imaginary representation of a user role.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Least productive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: act as a go-between.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pigs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the team.
-Product succes : customer satisfaction, revenue, cost.
-Developers are accountable for estimates.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Technical debt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: reflects extra work, comrpomises quality, is a real risk.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Its management by order the PB ans validating assumptions.
-Is not only determined by revenue. To make investment, all required to conceive and develop.
-With technical debt &gt; velocity reduced &gt; greater budget.
-The PO is responsible for the ROI (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eturn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nvestment),</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> he monitors by any practice.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">roject plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">otal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ost of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wnership) is the sum of all investments required.
-An i</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mportant client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wants : add to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>next sprint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> planning.
-Ultimate way to predict the value : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the points.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> occurs frequently.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -837,6 +365,333 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value maximizer and product marketplace expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE. The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actively asks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for stakeholders.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legwork of gathering :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it does not matter.
+A persona : An imaginary representation of a user role.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Least productive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: act as a go-between.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pigs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the team.
+Product succes : customer satisfaction, revenue, cost.
+Developers are accountable for estimates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Technical debt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: reflects extra work, comrpomises quality, is a real risk.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Velocity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is NOT a key measure of success.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Must respect the PO's decisions. It creates the DOD.
+</t>
+  </si>
+  <si>
+    <t>Burndown chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successful by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>releasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frequently/often. 
+Timeboxes help minimize risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for other techniques and methodologies.
+VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : customer feedback.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESSENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A small team.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Management HAVE a role within scrum &gt; management of the team : team members.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Typically : </t>
     </r>
     <r>
@@ -880,7 +735,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-To allow sprint planning : PB, product goal.
+To allow sprint planning (NO PREREQUISITES) : PB, product goal.
 Sprint retrospective : what to stop and start doing, </t>
     </r>
     <r>
@@ -931,6 +786,97 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Its management by order the PB ans validating assumptions.
+Is not only determined by revenue. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occurs frequently.
+To make investment, all required to conceive and develop.
+With technical debt &gt; velocity reduced &gt; greater budget.
+The PO is responsible for the ROI (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eturn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nvestment),</t>
+    </r>
+    <r>
       <rPr>
         <u/>
         <sz val="11"/>
@@ -939,39 +885,125 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Value maximizer and product marketplace expert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. He asks for stakeholder input.
-User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sigle metric </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FALSE. The PO </t>
+      <t xml:space="preserve"> he monitors by any practice.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">roject plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">otal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ost of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wnership) is the sum of all investments required.
+An i</t>
     </r>
     <r>
       <rPr>
@@ -982,43 +1014,172 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">actively asks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for stakeholders.
-His </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attendance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 18/03 19h49</t>
+      <t>mportant client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wants : add to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planning.
+Ultimate way to predict the value : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the points : 0 &gt; story needs no effort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is measured by impact on revenue,cost and customer satisfaction.
+The most </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>important stakeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the product's users.
+KVA (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">alue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reas) : Time-to-market, ability to innovate, current value.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 19/03 11h07</t>
   </si>
 </sst>
 </file>
@@ -1448,21 +1609,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C2" s="10"/>
     </row>
@@ -1473,10 +1634,10 @@
     </row>
     <row r="4" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1487,10 +1648,10 @@
     </row>
     <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="10"/>
     </row>
@@ -1504,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1520,10 +1681,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -1536,7 +1697,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -1550,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C14" s="10"/>
     </row>
@@ -1561,10 +1722,10 @@
     </row>
     <row r="16" spans="1:3" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -1574,8 +1735,12 @@
       <c r="C17" s="10"/>
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C18" s="10"/>
     </row>
     <row r="19" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F384E4D-7E6D-4FA3-974D-56D4DF29C794}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D0D4F3-2D03-4B36-93F0-55816B784393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,6 +154,182 @@
   <si>
     <r>
       <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Primary measure of progress in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : working software.</t>
+    </r>
+  </si>
+  <si>
+    <t>Burndown chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successful by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>releasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frequently/often. NOT design for static requirements.
+Timeboxes help minimize risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for other techniques and methodologies.
+VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : customer feedback.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESSENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A small team.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Management HAVE a role within scrum &gt; management of the team : team members.
+The recommended size of a scrum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 3-11.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -306,7 +482,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : sized 1-2 days. SHOULD be </t>
+      <t xml:space="preserve"> : sized 1-2 days, small enough, stated as user stories and cannot be epics.
+ SHOULD be </t>
     </r>
     <r>
       <rPr>
@@ -328,127 +505,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1-2 preceding sprints / actual sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Primary measure of progress in </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agile</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : working software.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Value maximizer and product marketplace expert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. He asks for stakeholder input.
-User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sigle metric </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FALSE. The PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">actively asks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for stakeholders.
-His </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attendance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint retrospective is mandatory.</t>
     </r>
   </si>
   <si>
@@ -494,7 +550,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">: act as a go-between.
+      <t xml:space="preserve">: act as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go-between.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -566,131 +643,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Must respect the PO's decisions. It creates the DOD.
-</t>
-  </si>
-  <si>
-    <t>Burndown chart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis.
-</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Successful by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>releasing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> frequently/often. 
-Timeboxes help minimize risk. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for other techniques and methodologies.
-VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : customer feedback.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESSENCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A small team.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Management HAVE a role within scrum &gt; management of the team : team members.</t>
-    </r>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Typically : </t>
     </r>
@@ -780,14 +732,194 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>contains much more activities.
-Sprint backlog includes at least 1 high priority process improvement : FALSE.</t>
+      <t xml:space="preserve">contains much more activities.
+Sprint backlog includes at least 1 high priority process improvement : FALSE.
+To do in </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>conformance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> with the DOD.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Must respect the PO's decisions. &gt; 1.org OR 2.dev team creates the DOD.
+PO and scrum master </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> part of the dev team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value maximizer and product marketplace expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE. The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actively asks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for stakeholders.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Intelligent balancing of interests
+Is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the daily scrum.</t>
     </r>
   </si>
   <si>
     <r>
       <t xml:space="preserve">Its management by order the PB ans validating assumptions.
-Is not only determined by revenue. </t>
+</t>
     </r>
     <r>
       <rPr>
@@ -808,7 +940,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> occurs frequently.
+      <t xml:space="preserve"> occurs frequently, release an increment to the market.
 To make investment, all required to conceive and develop.
 With technical debt &gt; velocity reduced &gt; greater budget.
 The PO is responsible for the ROI (</t>
@@ -1057,7 +1189,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>the points : 0 &gt; story needs no effort.</t>
+      <t>the points = 0 &gt; story needs no effort.</t>
     </r>
     <r>
       <rPr>
@@ -1068,6 +1200,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 
+Value points are not mandatory but are the best practice.
 </t>
     </r>
     <r>
@@ -1175,11 +1308,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>reas) : Time-to-market, ability to innovate, current value.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 19/03 11h07</t>
+      <t>reas) : Time-to-market, ability to innovate, current value.
+Value driven : &gt; coach the dev team &gt; remover of impediments.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 22/03 10h32</t>
   </si>
 </sst>
 </file>
@@ -1615,10 +1749,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="181.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1665,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
@@ -1676,12 +1810,12 @@
       <c r="B9" s="3"/>
       <c r="C9" s="10"/>
     </row>
-    <row r="10" spans="1:3" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>10</v>
@@ -1692,12 +1826,12 @@
       <c r="B11" s="3"/>
       <c r="C11" s="10"/>
     </row>
-    <row r="12" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="10"/>
     </row>
@@ -1711,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C14" s="10"/>
     </row>
@@ -1725,7 +1859,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="10"/>
     </row>
@@ -1736,10 +1870,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C18" s="10"/>
     </row>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D0D4F3-2D03-4B36-93F0-55816B784393}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9A4CD-A290-47F2-908C-846C507ECC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9144" yWindow="516" windowWidth="12708" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,10 +100,6 @@
     <t>Increment/done</t>
   </si>
   <si>
-    <t>To learn about the forecast, the sum of all PO items.
-Done : responsible &gt; developers (development team).</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -188,56 +184,317 @@
     <t>Burndown chart</t>
   </si>
   <si>
-    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis.
+    <r>
+      <t xml:space="preserve">Must respect the PO's decisions. &gt; 1.org OR 2.dev team creates the DOD.
+PO and scrum master </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> part of the dev team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Its management by order the PB ans validating assumptions.
 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Successful by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>releasing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> frequently/often. NOT design for static requirements.
-Timeboxes help minimize risk. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for other techniques and methodologies.
-VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occurs frequently, release an increment to the market.
+To make investment, all required to conceive and develop.
+With technical debt &gt; velocity reduced &gt; greater budget.
+The PO is responsible for the ROI (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">eturn </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">n </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nvestment),</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> he monitors by any practice.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">roject plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">otal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ost of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wnership) is the sum of all investments required.
+An i</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mportant client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wants : add to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planning.
+Ultimate way to predict the value : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the points = 0 &gt; story needs no effort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Value points are not mandatory but are the best practice.
 </t>
     </r>
     <r>
@@ -249,83 +506,109 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : customer feedback.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESSENCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A small team.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Management HAVE a role within scrum &gt; management of the team : team members.
-The recommended size of a scrum </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 3-11.</t>
-    </r>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is measured by impact on revenue,cost and customer satisfaction.
+The most </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>important stakeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the product's users.
+KVA (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">alue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reas) : Time-to-market, ability to innovate, current value.
+Value driven : &gt; coach the dev team &gt; remover of impediments.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis, bottom of the bar is lowered.
+</t>
   </si>
   <si>
     <r>
@@ -349,7 +632,28 @@
       </rPr>
       <t xml:space="preserve"> Value, dependencies to other and between.
 Difficulty to build : re-negociate. Ordering by anythings that informs.
-Updated only during PB refinement or at any time.
+Updated only during PB refinement or at any time. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
 </t>
     </r>
     <r>
@@ -482,8 +786,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> : sized 1-2 days, small enough, stated as user stories and cannot be epics.
- SHOULD be </t>
+      <t xml:space="preserve"> : sized 1-2 days, small enough, 1 sprint, stated as user stories refined.
+SHOULD be </t>
     </r>
     <r>
       <rPr>
@@ -639,7 +943,221 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> is NOT a key measure of success.</t>
+      <t xml:space="preserve"> is NOT a key measure of success BUT is the rate teams convert done in 1 sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value maximizer and product marketplace expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE. The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actively asks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for stakeholders.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Intelligent balancing of interests
+Is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the daily scrum. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Duties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : coordinate the team.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Release decision : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">constrained by new release, costs &amp; benefits, increment meets DOD.
+If absent, the scrum master assumes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO's responsabilities.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To learn about the forecast, the sum of all PO items.
+Done : responsible &gt; developers (development team), ready for a release.
+Done </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valuable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if increase customer satisfaction &amp; reduces long-term operational costs.</t>
     </r>
   </si>
   <si>
@@ -687,7 +1205,28 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-To allow sprint planning (NO PREREQUISITES) : PB, product goal.
+To allow sprint planning : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO preconditions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Sprint retrospective : what to stop and start doing, </t>
     </r>
     <r>
@@ -710,6 +1249,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> for the PO.
+Sprint retrospective : to promote continuous process improvements.
 3 activities of the PO : work (provide feedback) with the stackholders, answer questions.
 </t>
     </r>
@@ -755,37 +1295,100 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> with the DOD.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Must respect the PO's decisions. &gt; 1.org OR 2.dev team creates the DOD.
-PO and scrum master </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>could be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> part of the dev team.</t>
-    </r>
-  </si>
-  <si>
+      <t xml:space="preserve"> with the DOD. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successful by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>releasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frequently/often. NOT design for static requirements.
+Timeboxes help minimize risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for other techniques and methodologies.
+VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : customer feedback, release an increment.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESSENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
     <r>
       <rPr>
         <u/>
@@ -795,229 +1398,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Value maximizer and product marketplace expert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. He asks for stakeholder input.
-User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sigle metric </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FALSE. The PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">actively asks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for stakeholders.
-His </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attendance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint retrospective : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Intelligent balancing of interests
-Is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at the daily scrum.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Its management by order the PB ans validating assumptions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> occurs frequently, release an increment to the market.
-To make investment, all required to conceive and develop.
-With technical debt &gt; velocity reduced &gt; greater budget.
-The PO is responsible for the ROI (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eturn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nvestment),</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> he monitors by any practice.</t>
+      <t>A small team.</t>
     </r>
     <r>
       <rPr>
@@ -1028,28 +1409,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-The p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">roject plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
+Management HAVE a role within scrum &gt; management of the team : team members.
 The </t>
     </r>
     <r>
@@ -1061,259 +1421,85 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>TCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">otal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ost of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wnership) is the sum of all investments required.
-An i</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mportant client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wants : add to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>next sprint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> planning.
-Ultimate way to predict the value : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the points = 0 &gt; story needs no effort.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Value points are not mandatory but are the best practice.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is measured by impact on revenue,cost and customer satisfaction.
-The most </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>important stakeholder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the product's users.
-KVA (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ey </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">alue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reas) : Time-to-market, ability to innovate, current value.
-Value driven : &gt; coach the dev team &gt; remover of impediments.</t>
-    </r>
-  </si>
-  <si>
-    <t>corrigé le 22/03 10h32</t>
+      <t>recommended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> size of a scrum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 3-11, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optimum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> size less than 10.
+Sprint goal is NOT an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint planning.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 23/03 15h20</t>
   </si>
 </sst>
 </file>
@@ -1416,13 +1602,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1442,6 +1622,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1734,268 +1920,268 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" style="9" customWidth="1"/>
-    <col min="4" max="4" width="29.6640625" style="9" customWidth="1"/>
-    <col min="5" max="16384" width="8.77734375" style="9"/>
+    <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="24.77734375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>12</v>
+      <c r="C1" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="10"/>
+      <c r="B2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="10"/>
-    </row>
-    <row r="4" spans="1:3" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10"/>
+      <c r="C3" s="8"/>
+    </row>
+    <row r="4" spans="1:3" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
+      <c r="B4" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10"/>
-    </row>
-    <row r="6" spans="1:3" ht="45.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+    </row>
+    <row r="6" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="10"/>
+      <c r="B6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>11</v>
+      <c r="C8" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="8"/>
     </row>
     <row r="10" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>10</v>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
-    </row>
-    <row r="12" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="10"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:3" ht="128.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="10"/>
+      <c r="B12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="10"/>
-    </row>
-    <row r="16" spans="1:3" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="8"/>
+    </row>
+    <row r="16" spans="1:3" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="10"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="8"/>
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="8"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="8"/>
     </row>
     <row r="22" spans="1:3" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="8"/>
     </row>
     <row r="24" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="8"/>
     </row>
     <row r="26" spans="1:3" ht="107.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="3"/>
-      <c r="C27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="8"/>
     </row>
     <row r="28" spans="1:3" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="8"/>
     </row>
     <row r="30" spans="1:3" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="8"/>
     </row>
     <row r="32" spans="1:3" ht="82.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="8"/>
     </row>
     <row r="34" spans="1:3" ht="161.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" ht="12.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="8"/>
     </row>
     <row r="36" spans="1:3" ht="217.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="8"/>
     </row>
     <row r="38" spans="1:3" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
-      <c r="B39" s="3"/>
-      <c r="C39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="8"/>
     </row>
     <row r="40" spans="1:3" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="8"/>
     </row>
     <row r="42" spans="1:3" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE9A4CD-A290-47F2-908C-846C507ECC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D1539D-0D2D-4D66-8F50-544A351170D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9144" yWindow="516" windowWidth="12708" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,30 +109,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Agile manifesto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-FALSE : comprehensive documentation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>NOT</t>
     </r>
     <r>
@@ -1500,6 +1476,30 @@
   </si>
   <si>
     <t>corrigé le 23/03 15h20</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile manifesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FALSE : comprehensive documentation.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1916,7 +1916,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1929,13 +1931,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -1943,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -1957,7 +1959,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1971,7 +1973,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -1985,10 +1987,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2001,10 +2003,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2017,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -2031,7 +2033,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -2045,7 +2047,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -2056,10 +2058,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="8"/>
     </row>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59D1539D-0D2D-4D66-8F50-544A351170D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B0CA93-7999-4CFD-8D1E-05C6C209E658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9144" yWindow="516" windowWidth="12708" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,30 +160,526 @@
     <t>Burndown chart</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Must respect the PO's decisions. &gt; 1.org OR 2.dev team creates the DOD.
-PO and scrum master </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>could be</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> part of the dev team.</t>
+    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis, bottom of the bar is lowered.
+</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Agile manifesto:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+FALSE : comprehensive documentation.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Criteria to order :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Value, dependencies to other and between.
+Difficulty to build : re-negociate. Ordering by anythings that informs.
+Updated only during PB refinement or at any time. </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NO preconditions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Not ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for sprint planning : cancel the sprint.
+Changes by the PO and by the developers (with PO permission). NEVER BASELINED. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>It is the only source of requirements for any changes to be made.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+PB often include test descriptions. The PO must create </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>acceptance criteria</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Transparency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : PB is ordered, availiable to all stakeholders.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Refinment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : ongoing process, adding details and estimates.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : sized 1-2 days, small enough, 1 sprint, stated as user stories refined.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT Ready</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Cancel the sprint.
+SHOULD be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>refined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1-2 preceding sprints / actual sprint.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">To learn about the forecast, the sum of all PO items.
+Done : responsible &gt; developers (development team), ready for a release.
+Done </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valuable</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> if increase customer satisfaction &amp; reduces long-term operational costs.
+Done </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ensure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> transparency, guides the dev team ans is used to assess.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Successful by </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>releasing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> frequently/often. NOT design for static requirements.
+Timeboxes help minimize risk. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Container</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for other techniques and methodologies.
+VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Validated learning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : customer feedback, release an increment.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ESSENCE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A small team.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Management HAVE a role within scrum &gt; management of the team : team members.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>recommended</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> size of a scrum </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : 3-11, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optimum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> size less than 10.
+Sprint goal is NOT an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint planning.
+Scrum team is allowed to </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interact</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ANY time, works to ensure the PB conform to the DOD.</t>
     </r>
   </si>
   <si>
@@ -579,561 +1075,8 @@
         <scheme val="minor"/>
       </rPr>
       <t>reas) : Time-to-market, ability to innovate, current value.
-Value driven : &gt; coach the dev team &gt; remover of impediments.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Removals of features : stays BELOW horizontal axis, bottom of the bar is lowered.
-</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Criteria to order :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Value, dependencies to other and between.
-Difficulty to build : re-negociate. Ordering by anythings that informs.
-Updated only during PB refinement or at any time. </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NO preconditions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Not ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for sprint planning : cancel the sprint.
-Changes by the PO and by the developers (with PO permission). NEVER BASELINED. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>It is the only source of requirements for any changes to be made.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-PB often include test descriptions. The PO must create </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>acceptance criteria</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Transparency</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : PB is ordered, availiable to all stakeholders.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Refinment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : ongoing process, adding details and estimates.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ready</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : sized 1-2 days, small enough, 1 sprint, stated as user stories refined.
-SHOULD be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>refined</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 1-2 preceding sprints / actual sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Legwork of gathering :</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> it does not matter.
-A persona : An imaginary representation of a user role.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Least productive </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: act as a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>go-between.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Pigs</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the team.
-Product succes : customer satisfaction, revenue, cost.
-Developers are accountable for estimates.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Technical debt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: reflects extra work, comrpomises quality, is a real risk.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Velocity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is NOT a key measure of success BUT is the rate teams convert done in 1 sprint.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Value maximizer and product marketplace expert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. He asks for stakeholder input.
-User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">sigle metric </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">: FALSE. The PO </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">actively asks </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">for stakeholders.
-His </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>attendance</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint retrospective : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mandatory</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. Intelligent balancing of interests
-Is </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>not required</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> at the daily scrum. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Duties</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : coordinate the team.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release decision : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">constrained by new release, costs &amp; benefits, increment meets DOD.
-If absent, the scrum master assumes the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PO's responsabilities.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">To learn about the forecast, the sum of all PO items.
-Done : responsible &gt; developers (development team), ready for a release.
-Done </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>valuable</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> if increase customer satisfaction &amp; reduces long-term operational costs.</t>
+Value driven : &gt; coach the dev team &gt; remover of impediments.
+How readily his product can be absorb, how much of the functionality, customer feedback</t>
     </r>
   </si>
   <si>
@@ -1250,6 +1193,7 @@
       </rPr>
       <t xml:space="preserve">contains much more activities.
 Sprint backlog includes at least 1 high priority process improvement : FALSE.
+Sprint backlog : Pb items plus the (development team's) plan.
 To do in </t>
     </r>
     <r>
@@ -1276,97 +1220,30 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Successful by </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>releasing</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> frequently/often. NOT design for static requirements.
-Timeboxes help minimize risk. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Container</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> for other techniques and methodologies.
-VALUES : Courage, openness, focus, commitment, respect (all affected by lack of trust).
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Legwork of gathering :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it does not matter.
+A persona : An imaginary representation of a user role.
 </t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Validated learning</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : customer feedback, release an increment.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ESSENCE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : </t>
-    </r>
-    <r>
-      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1374,7 +1251,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>A small team.</t>
+      <t xml:space="preserve">Least productive </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: act as a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>go-between.</t>
     </r>
     <r>
       <rPr>
@@ -1385,109 +1283,373 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Management HAVE a role within scrum &gt; management of the team : team members.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>recommended</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> size of a scrum </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : 3-11, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>optimum</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> size less than 10.
-Sprint goal is NOT an </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to the sprint planning.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pigs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the team. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Changes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> can be made that impact the sprint goal.
+Product succes : customer satisfaction, revenue, cost.
+Developers are accountable for estimates. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Development</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : complex work.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Technical debt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: reflects extra work, comrpomises quality, is a real risk.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Velocity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is NOT a key measure of success BUT is the rate teams convert done in 1 sprint.
+NFR (</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Non Functional Requirements)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : increment meets them, add to the DOD.</t>
     </r>
   </si>
   <si>
-    <t>corrigé le 23/03 15h20</t>
+    <r>
+      <t xml:space="preserve">Must respect the PO's decisions. &gt; 1.org OR 2.dev team creates the DOD.
+PO and scrum master </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>could be</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> part of the dev team.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Enhance collaboration </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: innovation games.</t>
+    </r>
   </si>
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Agile manifesto:</t>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Value maximizer and product marketplace expert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He asks for stakeholder input.
+User acceptance, create user stories, release planning, prioritize the PB, monitoring the remaining work. Have a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">sigle metric </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: FALSE. The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">actively asks </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for stakeholders.
+His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>attendance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to the sprint retrospective : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mandatory</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Intelligent balancing of interests
+Is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>not required</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at the daily scrum. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Duties</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : coordinate the team.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Release decision : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">constrained by new release, costs &amp; benefits, increment meets DOD.
+If absent, the scrum master assumes the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PO's responsabilities (but he doesn't delegate).</t>
     </r>
     <r>
       <rPr>
@@ -1498,8 +1660,53 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-FALSE : comprehensive documentation.</t>
-    </r>
+He can delegate the ordering of the PB, he is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>optional attendee</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of the sprint retro.</t>
+    </r>
+  </si>
+  <si>
+    <t>corrigé le 25/03 15h47</t>
   </si>
 </sst>
 </file>
@@ -1916,14 +2123,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="76.33203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="79.33203125" style="11" customWidth="1"/>
     <col min="3" max="3" width="24.77734375" style="7" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" style="7" customWidth="1"/>
     <col min="5" max="16384" width="8.77734375" style="7"/>
@@ -1931,7 +2136,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="10" t="s">
         <v>7</v>
@@ -1945,7 +2150,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -1954,12 +2159,12 @@
       <c r="B3" s="10"/>
       <c r="C3" s="8"/>
     </row>
-    <row r="4" spans="1:3" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="120.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1968,12 +2173,12 @@
       <c r="B5" s="10"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:3" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -1982,12 +2187,12 @@
       <c r="B7" s="10"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:3" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="177.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>9</v>
@@ -1998,15 +2203,15 @@
       <c r="B9" s="10"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:3" ht="101.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2019,7 +2224,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -2028,12 +2233,12 @@
       <c r="B13" s="10"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:3" ht="36.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="49.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -2042,12 +2247,12 @@
       <c r="B15" s="10"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:3" ht="139.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="153.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -2061,7 +2266,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="8"/>
     </row>

--- a/prepa_certif_product_owner.xlsx
+++ b/prepa_certif_product_owner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\formation_BA\prepa_certif_product_owner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B0CA93-7999-4CFD-8D1E-05C6C209E658}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77414ECC-11E5-4F20-8712-2B15F289CFC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,55 +48,6 @@
     <t>PO</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">The primary target of the PO is the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VALUE</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-PB : Product Backlog.  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A new sprint starts immediately after the previous sprint.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-DOD : Definition of done. Ne jamais choisir comme réponses "hardening" et "tester".</t>
-    </r>
-  </si>
-  <si>
     <t>Increment/done</t>
   </si>
   <si>
@@ -684,403 +635,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Its management by order the PB ans validating assumptions.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Release</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> occurs frequently, release an increment to the market.
-To make investment, all required to conceive and develop.
-With technical debt &gt; velocity reduced &gt; greater budget.
-The PO is responsible for the ROI (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>R</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">eturn </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">n </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>nvestment),</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> he monitors by any practice.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The p</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">roject plan </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
-The </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TCO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>T</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">otal </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>C</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ost of </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>O</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>wnership) is the sum of all investments required.
-An i</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mportant client</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wants : add to the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>next sprint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> planning.
-Ultimate way to predict the value : </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>the points = 0 &gt; story needs no effort.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 
-Value points are not mandatory but are the best practice.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Success</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is measured by impact on revenue,cost and customer satisfaction.
-The most </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>important stakeholder</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : the product's users.
-KVA (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>K</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ey </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>V</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">alue </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>reas) : Time-to-market, ability to innovate, current value.
-Value driven : &gt; coach the dev team &gt; remover of impediments.
-How readily his product can be absorb, how much of the functionality, customer feedback</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Typically : </t>
     </r>
     <r>
@@ -1468,6 +1022,340 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Its management by order the PB ans validating assumptions.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Release</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> occurs frequently, release an increment to the market.
+To make investment, all required to conceive and develop.
+With technical debt &gt; velocity reduced &gt; greater budget.
+The PO </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>monitors by any practice.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The p</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">roject plan </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">updated (by the PO) as new information and insights emerge.
+The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">otal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ost of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>O</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>wnership) is the sum of all investments required.
+An i</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mportant client</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wants : add to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next sprint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> planning.
+Ultimate way to predict the value : </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the points = 0 &gt; story needs no effort.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 
+Value points are not mandatory but are the best practice.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is measured by impact on revenue,cost and customer satisfaction.
+The most </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>important stakeholder</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : the product's users.
+KVA (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>K</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">ey </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>V</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">alue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>reas) : Time-to-market, ability to innovate, current value.
+Value driven : &gt; coach the dev team &gt; remover of impediments.
+How readily his product can be absorb, how much of the functionality, customer feedback</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <u/>
         <sz val="11"/>
@@ -1660,7 +1548,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-He can delegate the ordering of the PB, he is </t>
+He is </t>
     </r>
     <r>
       <rPr>
@@ -1706,7 +1594,56 @@
     </r>
   </si>
   <si>
-    <t>corrigé le 25/03 15h47</t>
+    <t>corrigé le 26/03 14h00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The primary target of the PO is the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>VALUE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+PB : Product Backlog.  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A new sprint starts immediately after the previous sprint.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+DOD : Definition of done. Ne jamais choisir comme réponses "hardening" et "tester". Par moment, le scrum guide n'est pas clair, vous trouverez donc de possibles contradictions.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2123,7 +2060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2134,15 +2073,15 @@
     <col min="5" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="62.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>7</v>
-      </c>
       <c r="C1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="214.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -2150,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="8"/>
     </row>
@@ -2164,7 +2103,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -2175,10 +2114,10 @@
     </row>
     <row r="6" spans="1:3" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="8"/>
     </row>
@@ -2192,10 +2131,10 @@
         <v>1</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2208,10 +2147,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2224,7 +2163,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="8"/>
     </row>
@@ -2238,7 +2177,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="8"/>
     </row>
@@ -2252,7 +2191,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="8"/>
     </row>
@@ -2263,10 +2202,10 @@
     </row>
     <row r="18" spans="1:3" ht="94.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="8"/>
     </row>
